--- a/data/trans_bre/P6906-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6906-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-22,14%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,54%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-31,59; 15,23</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-11,93; 31,47</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-15,54; 39,61</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-68,81; 71,01</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,29; 124,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,27; 461,17</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,46%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,13; 12,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,65; 10,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 26,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,03; 28,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,97; 68,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,87; 53,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,09; 266,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,98; 195,03</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>225,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,35%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-22,43; 18,19</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-26,54; 27,09</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 45,67</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 23,31</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-70,9; 197,97</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,94; 287,82</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,54%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,12; 9,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,92; 16,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,23; 21,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,81; 21,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 125,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,93; 57,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,07; 64,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,11; 138,45</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>294,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,05%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,62; 50,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; 54,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,4; 53,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,21; 11,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,77</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>53,35</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>642,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,22%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,45; 23,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,67; 44,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,76; 86,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,22; 25,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 201,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,71; 592,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,34; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,18; 364,09</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,04%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,69%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,72; 24,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,98; 22,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,24; 22,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 28,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,67; 204,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,04; 150,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,3; 188,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 248,65</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,27%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,48%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,85; 15,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,2; 34,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,97; 17,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,45; 15,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,25; 70,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,7; 440,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,09; 123,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,92; 429,3</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,99%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 5,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 11,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 16,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 14,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,36; 29,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,32; 45,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,56; 82,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 93,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6906-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,88</t>
+          <t>12,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>48,53%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,53; 18,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 39,61</t>
+          <t>-16,01; 41,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,32; 52,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,27; 461,17</t>
+          <t>-46,44; 477,95</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>25,68%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 28,15</t>
+          <t>-14,88; 27,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 195,03</t>
+          <t>-36,85; 198,81</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>61,35%</t>
+          <t>62,22%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 23,31</t>
+          <t>-4,63; 23,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 287,82</t>
+          <t>-24,51; 297,33</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,01%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>-31,79%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 16,85</t>
+          <t>-18,1; 27,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 21,21</t>
+          <t>-43,5; 12,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 57,45</t>
+          <t>-46,41; 132,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,11; 138,45</t>
+          <t>-84,34; 63,89</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>-19,12%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 11,13</t>
+          <t>-20,86; 11,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>58,71%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 25,74</t>
+          <t>-9,19; 25,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 364,09</t>
+          <t>-38,12; 361,27</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,39</t>
+          <t>14,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>75,99%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 28,17</t>
+          <t>-0,48; 28,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 248,65</t>
+          <t>-3,77; 250,24</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>53,74%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 15,42</t>
+          <t>-7,88; 14,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-53,92; 429,3</t>
+          <t>-54,75; 421,34</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>32,68%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 14,25</t>
+          <t>-2,64; 12,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,28; 93,05</t>
+          <t>-10,24; 80,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6906-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 15,23</t>
+          <t>-28,75; 18,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 18,5</t>
+          <t>-30,87; 19,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 31,47</t>
+          <t>-13,9; 29,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 41,97</t>
+          <t>-13,75; 40,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-68,81; 71,01</t>
+          <t>-66,83; 74,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,32; 52,43</t>
+          <t>-55,6; 53,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 124,01</t>
+          <t>-29,85; 111,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,44; 477,95</t>
+          <t>-42,96; 402,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 12,28</t>
+          <t>-20,6; 13,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 10,51</t>
+          <t>-29,2; 10,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 26,71</t>
+          <t>-5,08; 27,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 27,7</t>
+          <t>-17,41; 26,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,97; 68,84</t>
+          <t>-70,4; 93,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,87; 53,88</t>
+          <t>-79,13; 55,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 266,84</t>
+          <t>-27,75; 267,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 198,81</t>
+          <t>-39,51; 193,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 18,19</t>
+          <t>-22,84; 17,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 27,09</t>
+          <t>-24,17; 28,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 45,67</t>
+          <t>-8,12; 45,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 23,41</t>
+          <t>-5,53; 23,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-70,9; 197,97</t>
+          <t>-69,29; 216,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 297,33</t>
+          <t>-28,02; 287,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 9,44</t>
+          <t>-24,1; 8,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 27,17</t>
+          <t>-17,25; 29,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 21,45</t>
+          <t>-29,14; 21,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 12,57</t>
+          <t>-40,66; 12,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 125,5</t>
+          <t>-100,0; 86,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 132,76</t>
+          <t>-45,06; 153,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 64,77</t>
+          <t>-52,18; 66,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-84,34; 63,89</t>
+          <t>-80,58; 58,99</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 50,82</t>
+          <t>-16,28; 47,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 54,65</t>
+          <t>-6,06; 52,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 53,66</t>
+          <t>-43,05; 51,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 11,27</t>
+          <t>-18,11; 12,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 23,62</t>
+          <t>-26,11; 20,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 44,98</t>
+          <t>-4,76; 47,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,76; 86,92</t>
+          <t>7,75; 83,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 25,55</t>
+          <t>-9,7; 25,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 201,39</t>
+          <t>-100,0; 193,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 592,63</t>
+          <t>-35,69; 577,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,34; —</t>
+          <t>-2,96; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 361,27</t>
+          <t>-38,5; 344,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 24,13</t>
+          <t>-6,52; 25,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 22,98</t>
+          <t>-14,02; 21,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 22,74</t>
+          <t>-8,54; 22,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 28,29</t>
+          <t>-1,1; 27,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 204,7</t>
+          <t>-32,11; 205,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 150,71</t>
+          <t>-45,12; 156,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 188,81</t>
+          <t>-38,49; 177,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 250,24</t>
+          <t>-5,45; 273,27</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 15,28</t>
+          <t>-13,75; 18,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 34,25</t>
+          <t>-9,02; 35,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 17,11</t>
+          <t>-30,88; 20,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 14,99</t>
+          <t>-6,01; 18,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 70,81</t>
+          <t>-41,82; 81,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 440,06</t>
+          <t>-46,66; 488,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-83,09; 123,76</t>
+          <t>-85,28; 102,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,75; 421,34</t>
+          <t>-48,1; 534,94</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,98</t>
+          <t>-7,6; 5,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,06</t>
+          <t>-3,85; 12,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 16,82</t>
+          <t>0,7; 17,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 12,71</t>
+          <t>-1,8; 12,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 29,97</t>
+          <t>-29,87; 28,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 45,67</t>
+          <t>-14,34; 54,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 82,42</t>
+          <t>1,76; 81,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 80,12</t>
+          <t>-7,81; 82,42</t>
         </is>
       </c>
     </row>
